--- a/GINZA_test/token_list.xlsx
+++ b/GINZA_test/token_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,36 +478,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>立体</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>立体</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>名詞-数詞</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>nummod</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>d</t>
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>辺</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>abcd</t>
+          <t>辺</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>nsubj</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XXXX</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -554,74 +554,74 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>が</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>が</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>補助記号-一般</t>
+          <t>助詞-格助詞</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>case</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EFGH</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>efgh</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>名詞-数詞</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nsubj</t>
+          <t>nummod</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>XXXX</t>
+          <t>d</t>
         </is>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -630,88 +630,88 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>は</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>は</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>助詞-係助詞</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>nmod</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>xx</t>
         </is>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>の</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>の</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>補助記号-読点</t>
+          <t>助詞-格助詞</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>punct</t>
+          <t>case</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>立方体</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>立方体</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>XX</t>
+          <t>xxx</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -744,22 +744,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>補助記号-一般</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -769,11 +769,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>XXXX</t>
         </is>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -782,32 +782,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>名詞-数詞</t>
+          <t>補助記号-一般</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nummod</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>EFGH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>efgh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -840,12 +840,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>nmod</t>
+          <t>nsubj</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>XXXX</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -858,146 +858,146 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>が</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>が</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>補助記号-読点</t>
+          <t>助詞-格助詞</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>punct</t>
+          <t>case</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>あり</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>ある</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>動詞-非自立可能</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>ROOT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>XX</t>
+          <t>xx</t>
         </is>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>ます</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>ます</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>補助記号-一般</t>
+          <t>助動詞</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>aux</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>xx</t>
         </is>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>．</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>名詞-数詞</t>
+          <t>補助記号-句点</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>nummod</t>
+          <t>punct</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>．</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1010,27 +1010,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>この</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>この</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>連体詞</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>nmod</t>
+          <t>det</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1042,42 +1042,42 @@
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>立方体</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>立方体</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>補助記号-読点</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>punct</t>
+          <t>nmod</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>xxx</t>
         </is>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1086,60 +1086,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>の</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>の</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>助詞-格助詞</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>case</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>XX</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>対角線</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>対角線</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>補助記号-一般</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>xxx</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1162,36 +1162,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>名詞-数詞</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>nummod</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>XX</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>上</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>上</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>接尾辞-名詞的-副詞可能</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>nmod</t>
+          <t>obl</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>の</t>
+          <t>に</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>の</t>
+          <t>に</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1276,36 +1276,36 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>直方体</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>直方体</t>
+          <t>,</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>補助記号-読点</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ROOT</t>
+          <t>punct</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>xxx</t>
+          <t>，</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1314,27 +1314,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>で</t>
+          <t>角</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>だ</t>
+          <t>角</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>助動詞</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1346,76 +1346,76 @@
         <v>1</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ある</t>
+          <t>AIF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ある</t>
+          <t>AIF</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>動詞-非自立可能</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>．</t>
+          <t>=</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>=</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>補助記号-句点</t>
+          <t>補助記号-一般</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>punct</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>．</t>
+          <t>=</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1428,36 +1428,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>頂点</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>頂点</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>名詞-数詞</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>nummod</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>°</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>°</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1481,21 +1481,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>補助記号-一般</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>nmod</t>
+          <t>obl</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>°</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1542,27 +1542,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>頂点</t>
+          <t>なる</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>頂点</t>
+          <t>なる</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>動詞-非自立可能</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>acl</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1574,18 +1574,18 @@
         <v>1</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>点</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>点</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>名詞-普通名詞-助数詞可能</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>obj</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1618,112 +1618,112 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>を</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>を</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>助詞-格助詞</t>
+          <t>名詞-普通名詞-一般</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>obj</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>結び</t>
+          <t>を</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>結ぶ</t>
+          <t>を</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>動詞-一般</t>
+          <t>助詞-格助詞</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>advcl</t>
+          <t>case</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>x</t>
         </is>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>とり</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>とる</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>補助記号-読点</t>
+          <t>動詞-一般</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>punct</t>
+          <t>ROOT</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>xx</t>
         </is>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1732,27 +1732,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>頂点</t>
+          <t>ます</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>頂点</t>
+          <t>ます</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>助動詞</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>aux</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1764,1108 +1764,44 @@
         <v>1</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>．</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>名詞-普通名詞-一般</t>
+          <t>補助記号-句点</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>obl</t>
+          <t>punct</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>．</t>
         </is>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>から</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>から</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>線分</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>線分</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>compound</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>obl</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>に</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>に</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>引い</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>引く</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>動詞-一般</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>acl</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>た</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>た</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>助動詞</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>aux</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>垂線</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>垂線</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>nmod</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>線分</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>線分</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>compound</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DF</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>nmod</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>の</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>の</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>交点</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>交点</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>obj</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>を</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>を</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>obl</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>と</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>する</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>する</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>動詞-非自立可能</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>．</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>補助記号-句点</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>punct</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>．</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>線分</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>線分</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>compound</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>BI</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>bi</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-一般</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>nmod</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>XX</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>の</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>の</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>助詞-格助詞</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>長</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>長い</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>形容詞-一般</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>nsubj</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>さ</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>さ</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>接尾辞-名詞的-一般</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>mark</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>は</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>は</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>助詞-係助詞</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>何</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>何</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>名詞-数詞</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>acl</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>名詞-普通名詞-助数詞可能</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>ROOT</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>xx</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>か</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>か</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>助詞-終助詞</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>mark</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>．</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>補助記号-句点</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>punct</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>．</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="b">
         <v>0</v>
       </c>
     </row>
